--- a/biology/Zoologie/Échiquier_(papillon)/Échiquier_(papillon).xlsx
+++ b/biology/Zoologie/Échiquier_(papillon)/Échiquier_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_(papillon)</t>
+          <t>Échiquier_(papillon)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom échiquier est un nom vernaculaire ambigu désignant en français plusieurs espèces de papillons appartenant aux familles des Nymphalidae et des Hesperiidae.
 Les échiquiers ont tous en commun d'avoir sur les ailes un motif rappelant les cases du plateau d'un jeu d'échecs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_(papillon)</t>
+          <t>Échiquier_(papillon)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste d'espèces nommées « échiquier »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Échiquier (ou Hespérie du brome) - Carterocephalus palaemon
 Échiquier (ou Demi-deuil) - Melanargia galathea
